--- a/poam/POAM v0.xlsx
+++ b/poam/POAM v0.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\03 Repos\01 Excel\05a POAMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\poam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DAECF-0D5E-44DD-A191-2F9574C0939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426BD65-569C-441D-B5F0-56BC92BC0611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="29040" windowHeight="15690" firstSheet="1" activeTab="2" xr2:uid="{E032D37B-1977-4533-8665-27725D762312}"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="29040" windowHeight="15690" firstSheet="1" activeTab="3" xr2:uid="{E032D37B-1977-4533-8665-27725D762312}"/>
   </bookViews>
   <sheets>
     <sheet name="Chars" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Lists" sheetId="3" r:id="rId2"/>
     <sheet name="POAM" sheetId="1" r:id="rId3"/>
+    <sheet name="Planning" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>ID</t>
   </si>
@@ -172,18 +173,9 @@
     <t>┣</t>
   </si>
   <si>
-    <t>┣ Basic characterization</t>
-  </si>
-  <si>
-    <t>┣ GPR</t>
-  </si>
-  <si>
     <t>┗</t>
   </si>
   <si>
-    <t>┗ Shearwave velocity testing, etc.</t>
-  </si>
-  <si>
     <t>┃</t>
   </si>
   <si>
@@ -202,15 +194,6 @@
     <t>Hex</t>
   </si>
   <si>
-    <t>┣ Surface terrain features</t>
-  </si>
-  <si>
-    <t>┣ Utility locates</t>
-  </si>
-  <si>
-    <t>┗ Bathymetry</t>
-  </si>
-  <si>
     <t>Seismic assessement (ASCE 41)</t>
   </si>
   <si>
@@ -232,15 +215,6 @@
     <t>Local US requirementes</t>
   </si>
   <si>
-    <t>┣ Service component</t>
-  </si>
-  <si>
-    <t>┣ Installation policies</t>
-  </si>
-  <si>
-    <t>┗ Unit policies</t>
-  </si>
-  <si>
     <t>Blast protection design</t>
   </si>
   <si>
@@ -292,42 +266,6 @@
     <t>Cyber for Facility Related Constrol Systems (FRCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">┣ Energy Management and Control Systems (EMCS) </t>
-  </si>
-  <si>
-    <t>┣ Utility Monitoring and Control Systems (UMCS)</t>
-  </si>
-  <si>
-    <t>┣ Electronic Security Systems (ESS)</t>
-  </si>
-  <si>
-    <t>┣ Building Automation Systems (BAC)</t>
-  </si>
-  <si>
-    <t>┣ Supervisory Control and Data Acquisition (SCADA) systems</t>
-  </si>
-  <si>
-    <t>┣ HVAC Direct Digital Controls (DDC) Controls</t>
-  </si>
-  <si>
-    <t>┣ Network Utility Control Systems</t>
-  </si>
-  <si>
-    <t>┣ IP-based Smart Meters</t>
-  </si>
-  <si>
-    <t>┣ IP-based lighting control systems</t>
-  </si>
-  <si>
-    <t>┣ IP-based public clock systems</t>
-  </si>
-  <si>
-    <t>┣ IP-based photovoltaic (PV) system monitoring</t>
-  </si>
-  <si>
-    <t>┗ Fire alarm reporting systems</t>
-  </si>
-  <si>
     <t>Cybersecurity</t>
   </si>
   <si>
@@ -389,6 +327,825 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t> ┣ Basic characterization</t>
+  </si>
+  <si>
+    <t> ┣ GPR</t>
+  </si>
+  <si>
+    <t> ┗ Shearwave velocity testing, etc.</t>
+  </si>
+  <si>
+    <t> ┣ Surface terrain features</t>
+  </si>
+  <si>
+    <t> ┣ Utility locates</t>
+  </si>
+  <si>
+    <t> ┗ Bathymetry</t>
+  </si>
+  <si>
+    <t> ┣ Service component</t>
+  </si>
+  <si>
+    <t> ┣ Installation policies</t>
+  </si>
+  <si>
+    <t> ┗ Unit policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ┣ Energy Management and Control Systems (EMCS) </t>
+  </si>
+  <si>
+    <t> ┣ Utility Monitoring and Control Systems (UMCS)</t>
+  </si>
+  <si>
+    <t> ┣ Electronic Security Systems (ESS)</t>
+  </si>
+  <si>
+    <t> ┣ Building Automation Systems (BAC)</t>
+  </si>
+  <si>
+    <t> ┣ Supervisory Control and Data Acquisition (SCADA) systems</t>
+  </si>
+  <si>
+    <t> ┣ HVAC Direct Digital Controls (DDC) Controls</t>
+  </si>
+  <si>
+    <t> ┣ Network Utility Control Systems</t>
+  </si>
+  <si>
+    <t> ┣ IP-based Smart Meters</t>
+  </si>
+  <si>
+    <t> ┣ IP-based lighting control systems</t>
+  </si>
+  <si>
+    <t> ┣ IP-based public clock systems</t>
+  </si>
+  <si>
+    <t> ┣ IP-based photovoltaic (PV) system monitoring</t>
+  </si>
+  <si>
+    <t> ┗ Fire alarm reporting systems</t>
+  </si>
+  <si>
+    <t># Proto-POAM Ideas</t>
+  </si>
+  <si>
+    <t>### Design Concerns</t>
+  </si>
+  <si>
+    <t>- Contract vehicle-related mentality</t>
+  </si>
+  <si>
+    <t>    - DBB</t>
+  </si>
+  <si>
+    <t>    - DB</t>
+  </si>
+  <si>
+    <t>- Funding source constraints</t>
+  </si>
+  <si>
+    <t>    - Host-Nation</t>
+  </si>
+  <si>
+    <t>    - MILCON</t>
+  </si>
+  <si>
+    <t>        - Army: MILCON Code 2 Process &amp; MRSI Wizard (https://mrsi.erdc.dren.mil/code2/)</t>
+  </si>
+  <si>
+    <t>    - SRM</t>
+  </si>
+  <si>
+    <t>    - O&amp;M</t>
+  </si>
+  <si>
+    <t>    - NAF</t>
+  </si>
+  <si>
+    <t>    - Other</t>
+  </si>
+  <si>
+    <t>- Cost Estimate Concerns</t>
+  </si>
+  <si>
+    <t>    - CWE exceeds PA by 10%</t>
+  </si>
+  <si>
+    <t>    - CWE under PA by...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Long lead items </t>
+  </si>
+  <si>
+    <t>- Spare parts</t>
+  </si>
+  <si>
+    <t>- Phasing</t>
+  </si>
+  <si>
+    <t>- Bid Options/CLINs</t>
+  </si>
+  <si>
+    <t>- GFCI or GFGI</t>
+  </si>
+  <si>
+    <t>- FF&amp;E</t>
+  </si>
+  <si>
+    <t>    - Huntsville Furniture Program (https://mrsi.erdc.dren.mil/furniture/) - part of Military Installation Design Support TCX</t>
+  </si>
+  <si>
+    <t>- Special equipment installed</t>
+  </si>
+  <si>
+    <t>- Special equipment to build</t>
+  </si>
+  <si>
+    <t>- Waiver/exemptions: design requires UFC exemptions (planning premised on seeking UFC exceptions)</t>
+  </si>
+  <si>
+    <t>- J/As</t>
+  </si>
+  <si>
+    <t>    - Existing J/As</t>
+  </si>
+  <si>
+    <t>    - Expiration dates of J/As</t>
+  </si>
+  <si>
+    <t>    - Needed J/As</t>
+  </si>
+  <si>
+    <t>- Site approval requirements</t>
+  </si>
+  <si>
+    <t>- Utility conflicts</t>
+  </si>
+  <si>
+    <t>- Environmental concerns</t>
+  </si>
+  <si>
+    <t>- [[Code Triggers]]</t>
+  </si>
+  <si>
+    <t>    - Life Safety: UFC 1-200-01, Sec. 302.1.1: NFPA 101 compliance?</t>
+  </si>
+  <si>
+    <t>    - Seismic Assessment (30% UFC 3-301-01)</t>
+  </si>
+  <si>
+    <t>    - ATFP (cf. UFC 1-200-01, Sec. 302.2.3), 50%</t>
+  </si>
+  <si>
+    <t>    - Progressive Collapse (UFC 4-010-01)</t>
+  </si>
+  <si>
+    <t>    - Sustainability (cf. UFC 1-200-01, Sec. 302.2.2, Table 1-1 and Ch. 2)</t>
+  </si>
+  <si>
+    <t>    - Phasing (UFC 1-200-01, Sec. 3-3, 302.2.7 (cf. UFC 3-701-01))</t>
+  </si>
+  <si>
+    <t>    - Fire Protection:</t>
+  </si>
+  <si>
+    <t>        - UFC 1-200-01, 302.2.5 (50% replacement cost)</t>
+  </si>
+  <si>
+    <t>        - Sec. 3-8.2.1 (50% floor plan) or 3-8.3.1</t>
+  </si>
+  <si>
+    <t>- Construction practice differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Acceptable alternatives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- DD1391 compliance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Scope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Budget </t>
+  </si>
+  <si>
+    <t>    - CSRA</t>
+  </si>
+  <si>
+    <t>    - Navy: Consistency Review Board (CRB) comment and review</t>
+  </si>
+  <si>
+    <t>- MCX or COS involvement (see below)</t>
+  </si>
+  <si>
+    <t>- SCIF/SIPRNet/NIPRNet</t>
+  </si>
+  <si>
+    <t>- Paperwork/Submittal deficiencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Host Nation (civil) influence/dependencies/requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Adjacency influence/dependencies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Must match/integrate with existing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Drawing issues </t>
+  </si>
+  <si>
+    <t>- Specs issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- QC documentation </t>
+  </si>
+  <si>
+    <t>- ECIFP</t>
+  </si>
+  <si>
+    <t>- DA</t>
+  </si>
+  <si>
+    <t>- Investigations</t>
+  </si>
+  <si>
+    <t>    - Hazmat</t>
+  </si>
+  <si>
+    <t>    - Geotechnical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Basic characterisation </t>
+  </si>
+  <si>
+    <t>        - GPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Shear wave velocity testing </t>
+  </si>
+  <si>
+    <t>    - Topo</t>
+  </si>
+  <si>
+    <t>    - Utilities locates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Seismic Assessment </t>
+  </si>
+  <si>
+    <t>- Known HAZMAT concerns</t>
+  </si>
+  <si>
+    <t>    - ACM</t>
+  </si>
+  <si>
+    <t>    - Lead/PCB</t>
+  </si>
+  <si>
+    <t>    - Arsenic</t>
+  </si>
+  <si>
+    <t>    - Radon</t>
+  </si>
+  <si>
+    <t>- UXO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Cultural studies </t>
+  </si>
+  <si>
+    <t>- Historic considerations</t>
+  </si>
+  <si>
+    <t>- DD1354 - property transfer</t>
+  </si>
+  <si>
+    <t>- As-builts and existing data</t>
+  </si>
+  <si>
+    <t>- Local US requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Service component </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Installation </t>
+  </si>
+  <si>
+    <t>    - Unit</t>
+  </si>
+  <si>
+    <t>- Blast protection design</t>
+  </si>
+  <si>
+    <t>- Explosive safety review/certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Blast arc encumbrance </t>
+  </si>
+  <si>
+    <t>- Physical security</t>
+  </si>
+  <si>
+    <t>- ABA/ADA considerations</t>
+  </si>
+  <si>
+    <t>    - Building compliance</t>
+  </si>
+  <si>
+    <t>    - Site compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Deep foundations </t>
+  </si>
+  <si>
+    <t>- Soil improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Site approval constraints and requirements </t>
+  </si>
+  <si>
+    <t>- Site drainage plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Height Restrictions </t>
+  </si>
+  <si>
+    <t>- Commissioning requirements</t>
+  </si>
+  <si>
+    <t>- Third party certification</t>
+  </si>
+  <si>
+    <t>- OPR (JDDG 18.4)</t>
+  </si>
+  <si>
+    <t>- Electrical power requirements</t>
+  </si>
+  <si>
+    <t>- Cyber for Facility Related Control Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Energy Management and Control Systems (EMCS) </t>
+  </si>
+  <si>
+    <t>    - Utility Monitoring and Control Systems (UMCS)</t>
+  </si>
+  <si>
+    <t>    - Electronic Security Systems (ESS)</t>
+  </si>
+  <si>
+    <t>    - Building Automation Systems (BAC)</t>
+  </si>
+  <si>
+    <t>    - Supervisory Control and Data Acquisition (SCADA) systems</t>
+  </si>
+  <si>
+    <t>    - HVAC Direct Digital Controls (DDC) Controls</t>
+  </si>
+  <si>
+    <t>    - Network Utility Control Systems</t>
+  </si>
+  <si>
+    <t>    - IP-based Smart Meters</t>
+  </si>
+  <si>
+    <t>    - IP-based lighting control systems</t>
+  </si>
+  <si>
+    <t>    - IP-based public clock systems</t>
+  </si>
+  <si>
+    <t>    - IP-based photovoltaic (PV) system monitoring</t>
+  </si>
+  <si>
+    <t>    - Fire alarm reporting systems</t>
+  </si>
+  <si>
+    <t>- Operations and Maintenance Support Information (OMSI)</t>
+  </si>
+  <si>
+    <t>### Performance Concerns</t>
+  </si>
+  <si>
+    <t>- Design Phases</t>
+  </si>
+  <si>
+    <t>    - Design submittals skipped (e.g. 35%, 65%, etc.)?</t>
+  </si>
+  <si>
+    <t>- Design Submittals</t>
+  </si>
+  <si>
+    <t>    - Rejected submissions</t>
+  </si>
+  <si>
+    <t>    - Delayed submissions</t>
+  </si>
+  <si>
+    <t>- Design Delays causing delay in acquistion schedule</t>
+  </si>
+  <si>
+    <t>    - During design</t>
+  </si>
+  <si>
+    <t>    - During bidder inquiry phase</t>
+  </si>
+  <si>
+    <t>- DQCP</t>
+  </si>
+  <si>
+    <t>    - No Design QC Plan</t>
+  </si>
+  <si>
+    <t>    - Rejected DQCP</t>
+  </si>
+  <si>
+    <t>    - A/E not adhering to DQCP</t>
+  </si>
+  <si>
+    <t>- Site Investigation Work and Safety Plan</t>
+  </si>
+  <si>
+    <t>- CPS (Construction Phase Services) contract</t>
+  </si>
+  <si>
+    <t>    - No CPS task order for A/E</t>
+  </si>
+  <si>
+    <t>    - Does project complexity warrent CPS?</t>
+  </si>
+  <si>
+    <t>- Reports of possible E/O</t>
+  </si>
+  <si>
+    <t>### MCX/TCX/COS Involvement</t>
+  </si>
+  <si>
+    <t>- USACE Centers of Expertise (https://mrsi.erdc.dren.mil/coe/), ER 1110-1-8158</t>
+  </si>
+  <si>
+    <t>- Mandatory Centers of Expertise (MCX)</t>
+  </si>
+  <si>
+    <t>    - Centers of Standardization</t>
+  </si>
+  <si>
+    <t>        - Fort Worth</t>
+  </si>
+  <si>
+    <t>            - Advanced Individual Training Complex</t>
+  </si>
+  <si>
+    <t>            - Basic Training and One Station Unit Training Complex</t>
+  </si>
+  <si>
+    <t>            - Central Issue Facility</t>
+  </si>
+  <si>
+    <t>            - General Purpose Warehouse</t>
+  </si>
+  <si>
+    <t>            - Institutional Post-Initial Military Training Unaccompanied Housing</t>
+  </si>
+  <si>
+    <t>            - Permanent Party Unaccompanied Housing</t>
+  </si>
+  <si>
+    <t>            - Reception Barracks</t>
+  </si>
+  <si>
+    <t>            - Unit Supply Support Activity Facility</t>
+  </si>
+  <si>
+    <t>        - Huntsville</t>
+  </si>
+  <si>
+    <t>            - Child Development - School Age Center (SAC)</t>
+  </si>
+  <si>
+    <t>            - Child Development Center - Less than 6 Years of Age</t>
+  </si>
+  <si>
+    <t>            - Fire Station</t>
+  </si>
+  <si>
+    <t>            - Physical Fitness Center</t>
+  </si>
+  <si>
+    <t>            - Soldier Performance Readiness Center</t>
+  </si>
+  <si>
+    <t>            - Youth Center</t>
+  </si>
+  <si>
+    <t>        - Louisville</t>
+  </si>
+  <si>
+    <t>            - Judicial Center with Courtroom</t>
+  </si>
+  <si>
+    <t>            - Operational Readiness Training Complex</t>
+  </si>
+  <si>
+    <t>            - Senior Leaders Quarters</t>
+  </si>
+  <si>
+    <t>        - Middle East</t>
+  </si>
+  <si>
+    <t>            - Administration</t>
+  </si>
+  <si>
+    <t>            - Billeting</t>
+  </si>
+  <si>
+    <t>            - Briefing/Assembly/Classroom</t>
+  </si>
+  <si>
+    <t>            - Dining</t>
+  </si>
+  <si>
+    <t>            - Envelopes</t>
+  </si>
+  <si>
+    <t>            - Fire Station (temporary/semi-permanent)</t>
+  </si>
+  <si>
+    <t>            - Force Protection</t>
+  </si>
+  <si>
+    <t>            - Headquarters</t>
+  </si>
+  <si>
+    <t>            - Joint Operation Center</t>
+  </si>
+  <si>
+    <t>            - Latrine</t>
+  </si>
+  <si>
+    <t>            - Laundry</t>
+  </si>
+  <si>
+    <t>            - Low Density Barracks (Officer Quarters)</t>
+  </si>
+  <si>
+    <t>            - Medical</t>
+  </si>
+  <si>
+    <t>            - MWR-Fitness</t>
+  </si>
+  <si>
+    <t>            - Religious</t>
+  </si>
+  <si>
+    <t>            - Tactical Operation Center</t>
+  </si>
+  <si>
+    <t>            - Weapon Storage</t>
+  </si>
+  <si>
+    <t>        - Mobile</t>
+  </si>
+  <si>
+    <t>            - Aircraft Clear Water Rinse Facility</t>
+  </si>
+  <si>
+    <t>            - Fixed Wing Aviation Unit Aircraft Maintenance Hangar</t>
+  </si>
+  <si>
+    <t>            - Tactical Unmanned Aircraft Systems Maintenance Hangar</t>
+  </si>
+  <si>
+    <t>            - TDA Aviation Unit Aircraft Maintenance Hangar</t>
+  </si>
+  <si>
+    <t>            - TOE Rotary Wing Aviation Battalion Aircraft Maintenance Hangar</t>
+  </si>
+  <si>
+    <t>        - Norfolk</t>
+  </si>
+  <si>
+    <t>            - Army Family Housing</t>
+  </si>
+  <si>
+    <t>            - Automation-Aided Instruction</t>
+  </si>
+  <si>
+    <t>            - Criminal Investigation Command</t>
+  </si>
+  <si>
+    <t>            - Enlisted Personnel Dining Facility (EPDF)</t>
+  </si>
+  <si>
+    <t>            - General Instruction Building</t>
+  </si>
+  <si>
+    <t>            - Information Systems Facility</t>
+  </si>
+  <si>
+    <t>            - Non-Commissioned Officer Academy</t>
+  </si>
+  <si>
+    <t>        - Omaha</t>
+  </si>
+  <si>
+    <t>            - Access Control Points</t>
+  </si>
+  <si>
+    <t>            - Chapels</t>
+  </si>
+  <si>
+    <t>            - Family Life Center</t>
+  </si>
+  <si>
+    <t>            - Initial Entry Training Chapels</t>
+  </si>
+  <si>
+    <t>            - Religious Education Facility</t>
+  </si>
+  <si>
+    <t>        - Savannah</t>
+  </si>
+  <si>
+    <t>            - Air Operations Building and Air Traffic Control Tower (AOB/ATCT)</t>
+  </si>
+  <si>
+    <t>            - BattleField Weather Support Facility</t>
+  </si>
+  <si>
+    <t>            - Brigade/Battalion Headquarters</t>
+  </si>
+  <si>
+    <t>            - Company Operations Facility</t>
+  </si>
+  <si>
+    <t>            - Echelons Above Brigade Command &amp; Control Facility</t>
+  </si>
+  <si>
+    <t>            - General Purpose Maintenance Facility - Logistics Readiness Center</t>
+  </si>
+  <si>
+    <t>            - Tactical Equipment Maintenance Facility</t>
+  </si>
+  <si>
+    <t>    - Control System Cybersecurity</t>
+  </si>
+  <si>
+    <t>    - Cost Engineering Center of Expertise</t>
+  </si>
+  <si>
+    <t>    - Critical Infrastructure Cybersecurity UCIC</t>
+  </si>
+  <si>
+    <t>    - Curation/Mgmt Archaeological Collections</t>
+  </si>
+  <si>
+    <t>    - Dam Safety Modification</t>
+  </si>
+  <si>
+    <t>    - Electronic Security Systems</t>
+  </si>
+  <si>
+    <t>    - Environmental and Munitions</t>
+  </si>
+  <si>
+    <t>    - Facilities Explosives Safety</t>
+  </si>
+  <si>
+    <t>    - Fuel Facilities (Petroleum, Oils and Lubricants)</t>
+  </si>
+  <si>
+    <t>    - Homeowners Assistance Program (HAP)</t>
+  </si>
+  <si>
+    <t>    - Hydroelectric Design Center</t>
+  </si>
+  <si>
+    <t>    - Inland Navigation Design Center</t>
+  </si>
+  <si>
+    <t>    - Marine Design Center</t>
+  </si>
+  <si>
+    <t>    - Medical Facilities</t>
+  </si>
+  <si>
+    <t>    - Missile Defense Mandatory Center of Expertise and Standardization</t>
+  </si>
+  <si>
+    <t>    - Modeling, Mapping &amp; Consequences Production Center</t>
+  </si>
+  <si>
+    <t>    - Protective Design Center (PDC)</t>
+  </si>
+  <si>
+    <t>    - Range Training Land Program (RTLP)</t>
+  </si>
+  <si>
+    <t>    - Risk Management Center</t>
+  </si>
+  <si>
+    <t>    - Sign Standards Program</t>
+  </si>
+  <si>
+    <t>    - Transportation Systems Center (TSMCX)</t>
+  </si>
+  <si>
+    <t>    - Utility Monitoring &amp; Control System</t>
+  </si>
+  <si>
+    <t>- Technical Centers of Expertise (TCX)</t>
+  </si>
+  <si>
+    <t>    - Aircraft Hangar Fire Protection</t>
+  </si>
+  <si>
+    <t>    - CAD/BIM Technology Center</t>
+  </si>
+  <si>
+    <t>    - Collaboration &amp; Public Participation Center</t>
+  </si>
+  <si>
+    <t>    - Corrosion Control &amp; Cathodic Protection</t>
+  </si>
+  <si>
+    <t>    - DD1391/Eng Form 3086 Review Center</t>
+  </si>
+  <si>
+    <t>    - DoD National Relocation Program (DNRP)</t>
+  </si>
+  <si>
+    <t>    - Facility Systems Safety (FASS)</t>
+  </si>
+  <si>
+    <t>    - Heating, Ventilating, &amp; Air Conditioning</t>
+  </si>
+  <si>
+    <t>    - Historic Structures &amp; Buildings</t>
+  </si>
+  <si>
+    <t>    - Historical Photographic Analysis *NEW*</t>
+  </si>
+  <si>
+    <t>    - Hydroelectric Design Center Pumping Plant Design</t>
+  </si>
+  <si>
+    <t>    - Hydrologic Engineering Center (HEC)</t>
+  </si>
+  <si>
+    <t>    - Installation Support</t>
+  </si>
+  <si>
+    <t>    - Joint Airborne Lidar Bathymetry Center</t>
+  </si>
+  <si>
+    <t>    - Military Housing Privatization Initiative Includes PAL, RCI and UPH</t>
+  </si>
+  <si>
+    <t>    - Paint Technology Center</t>
+  </si>
+  <si>
+    <t>    - Photogrammetric Mapping</t>
+  </si>
+  <si>
+    <t>    - Power Reliability Enhancement Program (PREP)</t>
+  </si>
+  <si>
+    <t>    - Rapid Response Technical Center of Expertise (Rapid Response SATOC and Rapid Disaster Infrastructure MATOC)</t>
+  </si>
+  <si>
+    <t>    - Remote Sensing/GIS Technology Center</t>
+  </si>
+  <si>
+    <t>    - Reserves Real Property Exchange Program</t>
+  </si>
+  <si>
+    <t>    - Subsurface Exploration Center</t>
+  </si>
+  <si>
+    <t>    - Survey Engineering and Mapping Center</t>
+  </si>
+  <si>
+    <t>    - Sustainment Management Systems</t>
+  </si>
+  <si>
+    <t>    - Tribal Nation (TNTCX)</t>
+  </si>
+  <si>
+    <t>    - Water and Wastewater Treatment</t>
+  </si>
+  <si>
+    <t>    - Welding and Metallurgy Technical Center of Expertise</t>
   </si>
 </sst>
 </file>
@@ -447,7 +1204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -471,6 +1228,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,18 +1985,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5">
         <v>2501</v>
@@ -1250,7 +2008,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5">
         <v>2533</v>
@@ -1262,7 +2020,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5">
         <v>2503</v>
@@ -1286,7 +2044,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
         <v>2517</v>
@@ -1307,7 +2065,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1317,15 +2075,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <f>COUNTIF($A2:$A$2,A2)</f>
@@ -1334,7 +2092,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <f>COUNTIF($A$2:$A3,A3)</f>
@@ -1343,7 +2101,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <f>COUNTIF($A$2:$A4,A4)</f>
@@ -1352,7 +2110,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <f>COUNTIF($A$2:$A5,A5)</f>
@@ -1361,7 +2119,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <f>COUNTIF($A$2:$A6,A6)</f>
@@ -1370,7 +2128,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <f>COUNTIF($A$2:$A7,A7)</f>
@@ -1379,7 +2137,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <f>COUNTIF($A$2:$A8,A8)</f>
@@ -1388,7 +2146,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <f>COUNTIF($A$2:$A9,A9)</f>
@@ -1397,7 +2155,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <f>COUNTIF($A$2:$A10,A10)</f>
@@ -1406,7 +2164,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <f>COUNTIF($A$2:$A11,A11)</f>
@@ -1415,7 +2173,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <f>COUNTIF($A$2:$A12,A12)</f>
@@ -1424,7 +2182,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <f>COUNTIF($A$2:$A13,A13)</f>
@@ -1433,7 +2191,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B14">
         <f>COUNTIF($A$2:$A14,A14)</f>
@@ -1442,7 +2200,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <f>COUNTIF($A$2:$A15,A15)</f>
@@ -1451,7 +2209,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <f>COUNTIF($A$2:$A16,A16)</f>
@@ -1460,7 +2218,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <f>COUNTIF($A$2:$A17,A17)</f>
@@ -1480,15 +2238,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FC5AE-5AA8-4BB0-AB6D-4D3571E8EC1A}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="3" width="24.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="45.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" style="2" customWidth="1"/>
@@ -1525,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -1567,7 +2325,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2"/>
       <c r="H8" s="1"/>
@@ -1780,21 +2538,21 @@
     </row>
     <row r="38" spans="3:8">
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="3:8">
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="3:8">
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E40" s="2"/>
       <c r="H40" s="1"/>
@@ -1808,301 +2566,301 @@
     </row>
     <row r="42" spans="3:8">
       <c r="D42" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="3:8">
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="3:8">
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="3:8">
       <c r="D45" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="3:8">
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E46" s="2"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="3:8">
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="3:8">
       <c r="D48" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E48" s="2"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="4:8">
       <c r="D49" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E49" s="2"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="4:8">
       <c r="D50" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E50" s="2"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="4:8">
       <c r="D51" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E51" s="2"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="4:8">
       <c r="D52" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="4:8">
       <c r="D53" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="4:8">
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="4:8">
       <c r="D55" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E55" s="2"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="4:8">
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E56" s="2"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="4:8">
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="4:8">
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E58" s="2"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="4:8">
       <c r="D59" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E59" s="2"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="4:8">
       <c r="D60" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E60" s="2"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="4:8">
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E61" s="2"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="4:8">
       <c r="D62" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E62" s="2"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="4:8">
       <c r="D63" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E63" s="2"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="4:8">
       <c r="D64" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E64" s="2"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="4:8">
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E65" s="2"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="4:8">
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E66" s="2"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="4:8">
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E67" s="2"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="4:8">
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E68" s="2"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="4:8">
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E69" s="2"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="4:8">
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E70" s="2"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="4:8">
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E71" s="2"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="4:8">
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="4:8">
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="4:8">
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="4:8">
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="4:8">
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="4:8">
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="4:8">
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="4:8">
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="4:8">
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="4:8">
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="4:8">
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="4:8">
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="4:8">
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E84" s="2"/>
       <c r="H84" s="1"/>
@@ -2136,7 +2894,7 @@
       <formula>IF(LOWER($H4)="n/a",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H84" xr:uid="{4A9E0157-5538-4C02-ADF9-D779BDC1C8A6}">
       <formula1>"N/A, Applicable, Coordinating, Resolved"</formula1>
     </dataValidation>
@@ -2146,4 +2904,1283 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FB5EF5-11BB-4B4B-817D-5CF9476E1FD7}">
+  <dimension ref="A1:A256"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="108.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>